--- a/LOGS/4df1e69c-c8f6-4e62-ae40-cd9fe0fb3151/main_page_service_output/main_pages.xlsx
+++ b/LOGS/4df1e69c-c8f6-4e62-ae40-cd9fe0fb3151/main_page_service_output/main_pages.xlsx
@@ -954,10 +954,10 @@
         <v>587350</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1199,7 +1199,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
